--- a/Analisis/Mosquito_Review_39articles.xlsx
+++ b/Analisis/Mosquito_Review_39articles.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Yi-qi_Sep-2020\Articulos\Mosquitos\MosquitoReview\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Damian\Documents\MosquitoReview\Analisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47CE4D9F-640F-4412-ADFD-0176A55A8DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C34E66-3429-43AD-8369-2030A8994E27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="345" windowWidth="23400" windowHeight="14865"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mosquito_Review_39articles" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22054" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22052" uniqueCount="559">
   <si>
     <t>DateUpload</t>
   </si>
@@ -985,9 +985,6 @@
     <t>lereeves@ufl.edu</t>
   </si>
   <si>
-    <t>?80.659990</t>
-  </si>
-  <si>
     <t>consultar_coordenadas</t>
   </si>
   <si>
@@ -1010,9 +1007,6 @@
   </si>
   <si>
     <t>Hyla_cinerea</t>
-  </si>
-  <si>
-    <t>?80.615617</t>
   </si>
   <si>
     <t>Culex_atratus</t>
@@ -1708,7 +1702,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2542,14 +2536,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BU344"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2770,7 +2766,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -2991,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -3212,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -3433,7 +3429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -3654,7 +3650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -3875,7 +3871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -4096,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>92</v>
       </c>
@@ -4317,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -4538,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -4759,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -4980,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -5201,7 +5197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -5422,7 +5418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>92</v>
       </c>
@@ -5643,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -5864,7 +5860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>92</v>
       </c>
@@ -6085,7 +6081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>92</v>
       </c>
@@ -6306,7 +6302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>92</v>
       </c>
@@ -6527,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>92</v>
       </c>
@@ -6748,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>92</v>
       </c>
@@ -6969,7 +6965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>92</v>
       </c>
@@ -7190,7 +7186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>92</v>
       </c>
@@ -7411,7 +7407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>92</v>
       </c>
@@ -7632,7 +7628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -7853,7 +7849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>92</v>
       </c>
@@ -8074,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -8295,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -8516,7 +8512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>92</v>
       </c>
@@ -8737,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -8958,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>92</v>
       </c>
@@ -9179,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -9400,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>92</v>
       </c>
@@ -9621,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -9842,7 +9838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -10063,7 +10059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>92</v>
       </c>
@@ -10284,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>92</v>
       </c>
@@ -10505,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -10726,7 +10722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>92</v>
       </c>
@@ -10947,7 +10943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -11168,7 +11164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -11389,7 +11385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -11610,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>92</v>
       </c>
@@ -11831,7 +11827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>92</v>
       </c>
@@ -12052,7 +12048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -12273,7 +12269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>92</v>
       </c>
@@ -12494,7 +12490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -12715,7 +12711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -12936,7 +12932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -13157,7 +13153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -13378,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>92</v>
       </c>
@@ -13599,7 +13595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>92</v>
       </c>
@@ -13820,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>92</v>
       </c>
@@ -14041,7 +14037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -14262,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>92</v>
       </c>
@@ -14483,7 +14479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>92</v>
       </c>
@@ -14704,7 +14700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>92</v>
       </c>
@@ -14925,7 +14921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -15146,7 +15142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>92</v>
       </c>
@@ -15367,7 +15363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>92</v>
       </c>
@@ -15588,7 +15584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>92</v>
       </c>
@@ -15809,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>92</v>
       </c>
@@ -16030,7 +16026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>92</v>
       </c>
@@ -16251,7 +16247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>92</v>
       </c>
@@ -16472,7 +16468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>92</v>
       </c>
@@ -16693,7 +16689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>92</v>
       </c>
@@ -16914,7 +16910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -17135,7 +17131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>92</v>
       </c>
@@ -17356,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>92</v>
       </c>
@@ -17577,7 +17573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>92</v>
       </c>
@@ -17798,7 +17794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>92</v>
       </c>
@@ -18019,7 +18015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -18240,7 +18236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>92</v>
       </c>
@@ -18461,7 +18457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>92</v>
       </c>
@@ -18682,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>92</v>
       </c>
@@ -18903,7 +18899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>92</v>
       </c>
@@ -19124,7 +19120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>92</v>
       </c>
@@ -19345,7 +19341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>92</v>
       </c>
@@ -19566,7 +19562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>92</v>
       </c>
@@ -19787,7 +19783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -20008,7 +20004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>92</v>
       </c>
@@ -20229,7 +20225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -20450,7 +20446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>92</v>
       </c>
@@ -20671,7 +20667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>92</v>
       </c>
@@ -20892,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>92</v>
       </c>
@@ -21113,7 +21109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>92</v>
       </c>
@@ -21334,7 +21330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>92</v>
       </c>
@@ -21555,7 +21551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>92</v>
       </c>
@@ -21776,7 +21772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -21997,7 +21993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -22218,7 +22214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -22439,7 +22435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -22660,7 +22656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>92</v>
       </c>
@@ -22881,7 +22877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -23102,7 +23098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -23323,7 +23319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -23544,7 +23540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>92</v>
       </c>
@@ -23765,7 +23761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>92</v>
       </c>
@@ -23986,7 +23982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -24207,7 +24203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -24428,7 +24424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -24649,7 +24645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>92</v>
       </c>
@@ -24870,7 +24866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>92</v>
       </c>
@@ -25091,7 +25087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>92</v>
       </c>
@@ -25312,7 +25308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>92</v>
       </c>
@@ -25533,7 +25529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>92</v>
       </c>
@@ -25754,7 +25750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>92</v>
       </c>
@@ -25975,7 +25971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>92</v>
       </c>
@@ -26196,7 +26192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>92</v>
       </c>
@@ -26417,7 +26413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>92</v>
       </c>
@@ -26638,7 +26634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>92</v>
       </c>
@@ -26859,7 +26855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>92</v>
       </c>
@@ -27080,7 +27076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>92</v>
       </c>
@@ -27301,7 +27297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>92</v>
       </c>
@@ -27522,7 +27518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>92</v>
       </c>
@@ -27743,7 +27739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>92</v>
       </c>
@@ -27964,7 +27960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>92</v>
       </c>
@@ -28185,7 +28181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>92</v>
       </c>
@@ -28406,7 +28402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>92</v>
       </c>
@@ -28627,7 +28623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>92</v>
       </c>
@@ -28848,7 +28844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>92</v>
       </c>
@@ -29069,7 +29065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>92</v>
       </c>
@@ -29290,7 +29286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>92</v>
       </c>
@@ -29511,7 +29507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>92</v>
       </c>
@@ -29732,7 +29728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>92</v>
       </c>
@@ -29953,7 +29949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>92</v>
       </c>
@@ -30174,7 +30170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>92</v>
       </c>
@@ -30395,7 +30391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>92</v>
       </c>
@@ -30616,7 +30612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>92</v>
       </c>
@@ -30837,7 +30833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>92</v>
       </c>
@@ -31058,7 +31054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>92</v>
       </c>
@@ -31279,7 +31275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>92</v>
       </c>
@@ -31500,7 +31496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>92</v>
       </c>
@@ -31721,7 +31717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>92</v>
       </c>
@@ -31942,7 +31938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>92</v>
       </c>
@@ -32163,7 +32159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>92</v>
       </c>
@@ -32384,7 +32380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>92</v>
       </c>
@@ -32605,7 +32601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>92</v>
       </c>
@@ -32826,7 +32822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>92</v>
       </c>
@@ -33047,7 +33043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>92</v>
       </c>
@@ -33268,7 +33264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>92</v>
       </c>
@@ -33489,7 +33485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>92</v>
       </c>
@@ -33710,7 +33706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>92</v>
       </c>
@@ -33931,7 +33927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>92</v>
       </c>
@@ -34152,7 +34148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>92</v>
       </c>
@@ -34373,7 +34369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>92</v>
       </c>
@@ -34594,7 +34590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>92</v>
       </c>
@@ -34815,7 +34811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>92</v>
       </c>
@@ -35036,7 +35032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>92</v>
       </c>
@@ -35257,7 +35253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>92</v>
       </c>
@@ -35478,7 +35474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>92</v>
       </c>
@@ -35699,7 +35695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>92</v>
       </c>
@@ -35920,7 +35916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>92</v>
       </c>
@@ -36141,7 +36137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>92</v>
       </c>
@@ -36362,7 +36358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>92</v>
       </c>
@@ -36583,7 +36579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>92</v>
       </c>
@@ -36804,7 +36800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>92</v>
       </c>
@@ -37025,7 +37021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>92</v>
       </c>
@@ -37246,7 +37242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>92</v>
       </c>
@@ -37467,7 +37463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>92</v>
       </c>
@@ -37688,7 +37684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>92</v>
       </c>
@@ -37909,7 +37905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>92</v>
       </c>
@@ -38130,7 +38126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>92</v>
       </c>
@@ -38351,7 +38347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>92</v>
       </c>
@@ -38572,7 +38568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>92</v>
       </c>
@@ -38793,7 +38789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>92</v>
       </c>
@@ -39014,7 +39010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>92</v>
       </c>
@@ -39235,7 +39231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>92</v>
       </c>
@@ -39456,7 +39452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>92</v>
       </c>
@@ -39677,7 +39673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>92</v>
       </c>
@@ -39898,7 +39894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>92</v>
       </c>
@@ -40119,7 +40115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>92</v>
       </c>
@@ -40340,7 +40336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>92</v>
       </c>
@@ -40561,7 +40557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>92</v>
       </c>
@@ -40782,7 +40778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>92</v>
       </c>
@@ -41003,7 +40999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>92</v>
       </c>
@@ -41224,7 +41220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>92</v>
       </c>
@@ -41445,7 +41441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>92</v>
       </c>
@@ -41666,7 +41662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>92</v>
       </c>
@@ -41887,7 +41883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>92</v>
       </c>
@@ -42108,7 +42104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>92</v>
       </c>
@@ -42329,7 +42325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>92</v>
       </c>
@@ -42550,7 +42546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>92</v>
       </c>
@@ -42771,7 +42767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>92</v>
       </c>
@@ -42992,7 +42988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>92</v>
       </c>
@@ -43213,7 +43209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>92</v>
       </c>
@@ -43434,7 +43430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>92</v>
       </c>
@@ -43655,7 +43651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>92</v>
       </c>
@@ -43876,7 +43872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>318</v>
       </c>
@@ -43889,23 +43885,23 @@
       <c r="D188" t="s">
         <v>76</v>
       </c>
-      <c r="E188" t="s">
-        <v>321</v>
+      <c r="E188">
+        <v>-80.659989999999993</v>
       </c>
       <c r="F188">
         <v>25.399878000000001</v>
       </c>
       <c r="G188" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H188">
         <v>24</v>
       </c>
       <c r="I188" t="s">
+        <v>322</v>
+      </c>
+      <c r="J188" t="s">
         <v>323</v>
-      </c>
-      <c r="J188" t="s">
-        <v>324</v>
       </c>
       <c r="K188">
         <v>12</v>
@@ -43923,25 +43919,25 @@
         <v>307</v>
       </c>
       <c r="P188" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q188" t="s">
         <v>278</v>
       </c>
       <c r="R188" t="s">
+        <v>325</v>
+      </c>
+      <c r="S188" t="s">
         <v>326</v>
       </c>
-      <c r="S188" t="s">
+      <c r="T188" t="s">
         <v>327</v>
-      </c>
-      <c r="T188" t="s">
-        <v>328</v>
       </c>
       <c r="U188" t="s">
         <v>277</v>
       </c>
       <c r="V188" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W188" t="s">
         <v>220</v>
@@ -44097,7 +44093,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>318</v>
       </c>
@@ -44110,23 +44106,23 @@
       <c r="D189" t="s">
         <v>76</v>
       </c>
-      <c r="E189" t="s">
-        <v>330</v>
+      <c r="E189">
+        <v>-80.615617</v>
       </c>
       <c r="F189">
         <v>25.402177999999999</v>
       </c>
       <c r="G189" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H189">
         <v>24</v>
       </c>
       <c r="I189" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J189" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K189">
         <v>3</v>
@@ -44144,7 +44140,7 @@
         <v>307</v>
       </c>
       <c r="P189" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q189" t="s">
         <v>82</v>
@@ -44318,15 +44314,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>73</v>
       </c>
       <c r="B190" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C190" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D190" t="s">
         <v>76</v>
@@ -44338,13 +44334,13 @@
         <v>39.182751000000003</v>
       </c>
       <c r="G190" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H190">
         <v>32</v>
       </c>
       <c r="I190" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J190" t="s">
         <v>247</v>
@@ -44365,28 +44361,28 @@
         <v>265</v>
       </c>
       <c r="P190" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q190" t="s">
         <v>100</v>
       </c>
       <c r="R190" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="S190" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="T190" t="s">
         <v>244</v>
       </c>
       <c r="U190" t="s">
+        <v>337</v>
+      </c>
+      <c r="V190" t="s">
+        <v>338</v>
+      </c>
+      <c r="W190" t="s">
         <v>339</v>
-      </c>
-      <c r="V190" t="s">
-        <v>340</v>
-      </c>
-      <c r="W190" t="s">
-        <v>341</v>
       </c>
       <c r="X190" t="s">
         <v>81</v>
@@ -44539,15 +44535,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
+        <v>340</v>
+      </c>
+      <c r="B191" t="s">
+        <v>341</v>
+      </c>
+      <c r="C191" t="s">
         <v>342</v>
-      </c>
-      <c r="B191" t="s">
-        <v>343</v>
-      </c>
-      <c r="C191" t="s">
-        <v>344</v>
       </c>
       <c r="D191" t="s">
         <v>76</v>
@@ -44559,13 +44555,13 @@
         <v>12.004492000000001</v>
       </c>
       <c r="G191" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H191">
         <v>28</v>
       </c>
       <c r="I191" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J191" t="s">
         <v>149</v>
@@ -44583,7 +44579,7 @@
         <v>88</v>
       </c>
       <c r="O191" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="P191" t="s">
         <v>98</v>
@@ -44595,13 +44591,13 @@
         <v>187</v>
       </c>
       <c r="S191" t="s">
+        <v>346</v>
+      </c>
+      <c r="T191" t="s">
+        <v>347</v>
+      </c>
+      <c r="U191" t="s">
         <v>348</v>
-      </c>
-      <c r="T191" t="s">
-        <v>349</v>
-      </c>
-      <c r="U191" t="s">
-        <v>350</v>
       </c>
       <c r="V191" t="s">
         <v>82</v>
@@ -44760,15 +44756,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B192" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C192" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D192" t="s">
         <v>76</v>
@@ -44780,13 +44776,13 @@
         <v>29.715226000000001</v>
       </c>
       <c r="G192" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H192">
         <v>27</v>
       </c>
       <c r="I192" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J192" t="s">
         <v>149</v>
@@ -44819,7 +44815,7 @@
         <v>120</v>
       </c>
       <c r="T192" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="U192" t="s">
         <v>82</v>
@@ -44981,15 +44977,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B193" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C193" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D193" t="s">
         <v>76</v>
@@ -45007,10 +45003,10 @@
         <v>25</v>
       </c>
       <c r="I193" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J193" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K193">
         <v>6</v>
@@ -45025,7 +45021,7 @@
         <v>102</v>
       </c>
       <c r="O193" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="P193" t="s">
         <v>88</v>
@@ -45202,12 +45198,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B194" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C194" t="s">
         <v>82</v>
@@ -45228,10 +45224,10 @@
         <v>31</v>
       </c>
       <c r="I194" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="J194" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K194">
         <v>6</v>
@@ -45423,15 +45419,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>73</v>
       </c>
       <c r="B195" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C195" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D195" t="s">
         <v>76</v>
@@ -45443,13 +45439,13 @@
         <v>40.195253000000001</v>
       </c>
       <c r="G195" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H195">
         <v>32</v>
       </c>
       <c r="I195" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J195" t="s">
         <v>247</v>
@@ -45467,7 +45463,7 @@
         <v>266</v>
       </c>
       <c r="O195" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P195" t="s">
         <v>100</v>
@@ -45476,7 +45472,7 @@
         <v>120</v>
       </c>
       <c r="R195" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="S195" t="s">
         <v>293</v>
@@ -45644,15 +45640,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>73</v>
       </c>
       <c r="B196" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C196" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D196" t="s">
         <v>76</v>
@@ -45664,13 +45660,13 @@
         <v>-22.266667000000002</v>
       </c>
       <c r="G196" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H196">
         <v>34</v>
       </c>
       <c r="I196" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J196" t="s">
         <v>299</v>
@@ -45694,7 +45690,7 @@
         <v>99</v>
       </c>
       <c r="Q196" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R196" t="s">
         <v>81</v>
@@ -45865,15 +45861,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>73</v>
       </c>
       <c r="B197" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C197" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D197" t="s">
         <v>76</v>
@@ -45885,16 +45881,16 @@
         <v>-22.783332999999999</v>
       </c>
       <c r="G197" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H197">
         <v>34</v>
       </c>
       <c r="I197" t="s">
+        <v>366</v>
+      </c>
+      <c r="J197" t="s">
         <v>368</v>
-      </c>
-      <c r="J197" t="s">
-        <v>370</v>
       </c>
       <c r="K197">
         <v>6</v>
@@ -45915,7 +45911,7 @@
         <v>99</v>
       </c>
       <c r="Q197" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="R197" t="s">
         <v>81</v>
@@ -46086,15 +46082,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B198" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C198" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D198" t="s">
         <v>76</v>
@@ -46112,10 +46108,10 @@
         <v>25</v>
       </c>
       <c r="I198" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J198" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K198">
         <v>5</v>
@@ -46139,7 +46135,7 @@
         <v>81</v>
       </c>
       <c r="R198" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="S198" t="s">
         <v>82</v>
@@ -46307,15 +46303,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B199" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C199" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D199" t="s">
         <v>76</v>
@@ -46333,10 +46329,10 @@
         <v>25</v>
       </c>
       <c r="I199" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J199" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K199">
         <v>5</v>
@@ -46528,15 +46524,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B200" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C200" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D200" t="s">
         <v>76</v>
@@ -46548,16 +46544,16 @@
         <v>15.018378999999999</v>
       </c>
       <c r="G200" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H200">
         <v>26</v>
       </c>
       <c r="I200" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J200" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K200">
         <v>5</v>
@@ -46749,15 +46745,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B201" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C201" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D201" t="s">
         <v>76</v>
@@ -46769,16 +46765,16 @@
         <v>14.103168</v>
       </c>
       <c r="G201" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H201">
         <v>26</v>
       </c>
       <c r="I201" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J201" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K201">
         <v>5</v>
@@ -46970,15 +46966,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B202" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C202" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D202" t="s">
         <v>76</v>
@@ -46990,16 +46986,16 @@
         <v>14.439279000000001</v>
       </c>
       <c r="G202" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H202">
         <v>26</v>
       </c>
       <c r="I202" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J202" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K202">
         <v>5</v>
@@ -47191,15 +47187,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B203" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C203" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D203" t="s">
         <v>76</v>
@@ -47211,16 +47207,16 @@
         <v>15.938416</v>
       </c>
       <c r="G203" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H203">
         <v>26</v>
       </c>
       <c r="I203" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J203" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K203">
         <v>5</v>
@@ -47412,15 +47408,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B204" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C204" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D204" t="s">
         <v>76</v>
@@ -47432,16 +47428,16 @@
         <v>15.748587000000001</v>
       </c>
       <c r="G204" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H204">
         <v>26</v>
       </c>
       <c r="I204" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J204" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K204">
         <v>5</v>
@@ -47633,15 +47629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B205" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C205" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D205" t="s">
         <v>76</v>
@@ -47653,13 +47649,13 @@
         <v>29.601427999999999</v>
       </c>
       <c r="G205" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H205">
         <v>27</v>
       </c>
       <c r="I205" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J205" t="s">
         <v>141</v>
@@ -47854,15 +47850,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
+        <v>340</v>
+      </c>
+      <c r="B206" t="s">
+        <v>341</v>
+      </c>
+      <c r="C206" t="s">
         <v>342</v>
-      </c>
-      <c r="B206" t="s">
-        <v>343</v>
-      </c>
-      <c r="C206" t="s">
-        <v>344</v>
       </c>
       <c r="D206" t="s">
         <v>76</v>
@@ -47874,13 +47870,13 @@
         <v>11.99967</v>
       </c>
       <c r="G206" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H206">
         <v>28</v>
       </c>
       <c r="I206" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J206" t="s">
         <v>149</v>
@@ -47895,19 +47891,19 @@
         <v>80</v>
       </c>
       <c r="N206" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O206" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P206" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q206" t="s">
         <v>153</v>
       </c>
       <c r="R206" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="S206" t="s">
         <v>82</v>
@@ -48075,15 +48071,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>73</v>
       </c>
       <c r="B207" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C207" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D207" t="s">
         <v>76</v>
@@ -48095,13 +48091,13 @@
         <v>39.515442999999998</v>
       </c>
       <c r="G207" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H207">
         <v>32</v>
       </c>
       <c r="I207" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J207" t="s">
         <v>247</v>
@@ -48122,7 +48118,7 @@
         <v>265</v>
       </c>
       <c r="P207" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Q207" t="s">
         <v>244</v>
@@ -48296,15 +48292,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>73</v>
       </c>
       <c r="B208" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C208" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D208" t="s">
         <v>76</v>
@@ -48316,16 +48312,16 @@
         <v>-18.602399999999999</v>
       </c>
       <c r="G208" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H208">
         <v>35</v>
       </c>
       <c r="I208" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J208" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="K208">
         <v>5</v>
@@ -48517,15 +48513,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B209" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C209" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D209" t="s">
         <v>76</v>
@@ -48543,10 +48539,10 @@
         <v>25</v>
       </c>
       <c r="I209" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J209" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K209">
         <v>4</v>
@@ -48738,15 +48734,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B210" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C210" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D210" t="s">
         <v>76</v>
@@ -48758,13 +48754,13 @@
         <v>15.748587000000001</v>
       </c>
       <c r="G210" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H210">
         <v>26</v>
       </c>
       <c r="I210" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J210" t="s">
         <v>165</v>
@@ -48959,15 +48955,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B211" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C211" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D211" t="s">
         <v>76</v>
@@ -48979,16 +48975,16 @@
         <v>29.715226000000001</v>
       </c>
       <c r="G211" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H211">
         <v>27</v>
       </c>
       <c r="I211" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J211" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K211">
         <v>4</v>
@@ -49009,7 +49005,7 @@
         <v>81</v>
       </c>
       <c r="Q211" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="R211" t="s">
         <v>82</v>
@@ -49180,15 +49176,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B212" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C212" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D212" t="s">
         <v>76</v>
@@ -49200,13 +49196,13 @@
         <v>29.715226000000001</v>
       </c>
       <c r="G212" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H212">
         <v>27</v>
       </c>
       <c r="I212" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J212" t="s">
         <v>97</v>
@@ -49401,15 +49397,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
+        <v>340</v>
+      </c>
+      <c r="B213" t="s">
+        <v>341</v>
+      </c>
+      <c r="C213" t="s">
         <v>342</v>
-      </c>
-      <c r="B213" t="s">
-        <v>343</v>
-      </c>
-      <c r="C213" t="s">
-        <v>344</v>
       </c>
       <c r="D213" t="s">
         <v>76</v>
@@ -49421,13 +49417,13 @@
         <v>12.004248</v>
       </c>
       <c r="G213" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H213">
         <v>28</v>
       </c>
       <c r="I213" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J213" t="s">
         <v>149</v>
@@ -49445,7 +49441,7 @@
         <v>81</v>
       </c>
       <c r="O213" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P213" t="s">
         <v>153</v>
@@ -49622,15 +49618,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B214" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C214" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D214" t="s">
         <v>76</v>
@@ -49642,13 +49638,13 @@
         <v>10.634898</v>
       </c>
       <c r="G214" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H214">
         <v>29</v>
       </c>
       <c r="I214" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J214" t="s">
         <v>141</v>
@@ -49663,16 +49659,16 @@
         <v>87</v>
       </c>
       <c r="N214" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O214" t="s">
         <v>102</v>
       </c>
       <c r="P214" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q214" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="R214" t="s">
         <v>82</v>
@@ -49843,15 +49839,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B215" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C215" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D215" t="s">
         <v>76</v>
@@ -49863,13 +49859,13 @@
         <v>10.593458999999999</v>
       </c>
       <c r="G215" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H215">
         <v>29</v>
       </c>
       <c r="I215" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J215" t="s">
         <v>141</v>
@@ -49884,16 +49880,16 @@
         <v>87</v>
       </c>
       <c r="N215" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="O215" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P215" t="s">
         <v>102</v>
       </c>
       <c r="Q215" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="R215" t="s">
         <v>82</v>
@@ -50064,15 +50060,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>73</v>
       </c>
       <c r="B216" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C216" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D216" t="s">
         <v>76</v>
@@ -50084,13 +50080,13 @@
         <v>-14.473889</v>
       </c>
       <c r="G216" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H216">
         <v>34</v>
       </c>
       <c r="I216" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J216" t="s">
         <v>299</v>
@@ -50108,7 +50104,7 @@
         <v>99</v>
       </c>
       <c r="O216" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P216" t="s">
         <v>81</v>
@@ -50285,15 +50281,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>73</v>
       </c>
       <c r="B217" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C217" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D217" t="s">
         <v>76</v>
@@ -50305,13 +50301,13 @@
         <v>-22.759167000000001</v>
       </c>
       <c r="G217" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H217">
         <v>34</v>
       </c>
       <c r="I217" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="J217" t="s">
         <v>299</v>
@@ -50329,7 +50325,7 @@
         <v>100</v>
       </c>
       <c r="O217" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P217" t="s">
         <v>81</v>
@@ -50506,15 +50502,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>73</v>
       </c>
       <c r="B218" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C218" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D218" t="s">
         <v>76</v>
@@ -50526,16 +50522,16 @@
         <v>-22.759167000000001</v>
       </c>
       <c r="G218" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H218">
         <v>34</v>
       </c>
       <c r="I218" t="s">
+        <v>366</v>
+      </c>
+      <c r="J218" t="s">
         <v>368</v>
-      </c>
-      <c r="J218" t="s">
-        <v>370</v>
       </c>
       <c r="K218">
         <v>4</v>
@@ -50550,7 +50546,7 @@
         <v>100</v>
       </c>
       <c r="O218" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P218" t="s">
         <v>81</v>
@@ -50727,15 +50723,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B219" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C219" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D219" t="s">
         <v>76</v>
@@ -50753,10 +50749,10 @@
         <v>25</v>
       </c>
       <c r="I219" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J219" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K219">
         <v>3</v>
@@ -50948,15 +50944,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B220" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C220" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D220" t="s">
         <v>76</v>
@@ -50974,10 +50970,10 @@
         <v>25</v>
       </c>
       <c r="I220" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J220" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K220">
         <v>3</v>
@@ -51169,15 +51165,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B221" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C221" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D221" t="s">
         <v>76</v>
@@ -51195,10 +51191,10 @@
         <v>25</v>
       </c>
       <c r="I221" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J221" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K221">
         <v>3</v>
@@ -51390,15 +51386,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B222" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C222" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D222" t="s">
         <v>76</v>
@@ -51416,10 +51412,10 @@
         <v>25</v>
       </c>
       <c r="I222" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J222" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K222">
         <v>3</v>
@@ -51611,15 +51607,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B223" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C223" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D223" t="s">
         <v>76</v>
@@ -51631,16 +51627,16 @@
         <v>15.018378999999999</v>
       </c>
       <c r="G223" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H223">
         <v>26</v>
       </c>
       <c r="I223" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J223" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K223">
         <v>3</v>
@@ -51832,15 +51828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B224" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C224" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D224" t="s">
         <v>76</v>
@@ -51852,13 +51848,13 @@
         <v>15.938416</v>
       </c>
       <c r="G224" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H224">
         <v>26</v>
       </c>
       <c r="I224" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J224" t="s">
         <v>165</v>
@@ -52053,15 +52049,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B225" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C225" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D225" t="s">
         <v>76</v>
@@ -52073,16 +52069,16 @@
         <v>29.601427999999999</v>
       </c>
       <c r="G225" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H225">
         <v>27</v>
       </c>
       <c r="I225" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J225" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="K225">
         <v>3</v>
@@ -52274,15 +52270,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
+        <v>340</v>
+      </c>
+      <c r="B226" t="s">
+        <v>341</v>
+      </c>
+      <c r="C226" t="s">
         <v>342</v>
-      </c>
-      <c r="B226" t="s">
-        <v>343</v>
-      </c>
-      <c r="C226" t="s">
-        <v>344</v>
       </c>
       <c r="D226" t="s">
         <v>76</v>
@@ -52294,13 +52290,13 @@
         <v>11.999364999999999</v>
       </c>
       <c r="G226" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H226">
         <v>28</v>
       </c>
       <c r="I226" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J226" t="s">
         <v>149</v>
@@ -52495,15 +52491,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
+        <v>340</v>
+      </c>
+      <c r="B227" t="s">
+        <v>341</v>
+      </c>
+      <c r="C227" t="s">
         <v>342</v>
-      </c>
-      <c r="B227" t="s">
-        <v>343</v>
-      </c>
-      <c r="C227" t="s">
-        <v>344</v>
       </c>
       <c r="D227" t="s">
         <v>76</v>
@@ -52515,13 +52511,13 @@
         <v>12.004492000000001</v>
       </c>
       <c r="G227" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H227">
         <v>28</v>
       </c>
       <c r="I227" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J227" t="s">
         <v>97</v>
@@ -52542,7 +52538,7 @@
         <v>81</v>
       </c>
       <c r="P227" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="Q227" t="s">
         <v>82</v>
@@ -52716,15 +52712,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
+        <v>340</v>
+      </c>
+      <c r="B228" t="s">
+        <v>341</v>
+      </c>
+      <c r="C228" t="s">
         <v>342</v>
-      </c>
-      <c r="B228" t="s">
-        <v>343</v>
-      </c>
-      <c r="C228" t="s">
-        <v>344</v>
       </c>
       <c r="D228" t="s">
         <v>76</v>
@@ -52736,13 +52732,13 @@
         <v>12.020284999999999</v>
       </c>
       <c r="G228" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H228">
         <v>28</v>
       </c>
       <c r="I228" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J228" t="s">
         <v>97</v>
@@ -52757,7 +52753,7 @@
         <v>80</v>
       </c>
       <c r="N228" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O228" t="s">
         <v>88</v>
@@ -52937,15 +52933,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B229" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C229" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D229" t="s">
         <v>76</v>
@@ -52957,13 +52953,13 @@
         <v>10.5966</v>
       </c>
       <c r="G229" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H229">
         <v>29</v>
       </c>
       <c r="I229" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J229" t="s">
         <v>203</v>
@@ -52984,7 +52980,7 @@
         <v>88</v>
       </c>
       <c r="P229" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="Q229" t="s">
         <v>82</v>
@@ -53158,15 +53154,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>73</v>
       </c>
       <c r="B230" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C230" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D230" t="s">
         <v>76</v>
@@ -53178,13 +53174,13 @@
         <v>39.301603</v>
       </c>
       <c r="G230" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H230">
         <v>32</v>
       </c>
       <c r="I230" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J230" t="s">
         <v>247</v>
@@ -53202,10 +53198,10 @@
         <v>266</v>
       </c>
       <c r="O230" t="s">
+        <v>334</v>
+      </c>
+      <c r="P230" t="s">
         <v>336</v>
-      </c>
-      <c r="P230" t="s">
-        <v>338</v>
       </c>
       <c r="Q230" t="s">
         <v>82</v>
@@ -53379,15 +53375,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B231" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C231" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D231" t="s">
         <v>76</v>
@@ -53405,10 +53401,10 @@
         <v>25</v>
       </c>
       <c r="I231" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J231" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K231">
         <v>2</v>
@@ -53600,15 +53596,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B232" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C232" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D232" t="s">
         <v>76</v>
@@ -53626,10 +53622,10 @@
         <v>25</v>
       </c>
       <c r="I232" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J232" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K232">
         <v>2</v>
@@ -53821,15 +53817,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B233" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C233" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D233" t="s">
         <v>76</v>
@@ -53847,10 +53843,10 @@
         <v>25</v>
       </c>
       <c r="I233" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J233" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K233">
         <v>2</v>
@@ -54042,15 +54038,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B234" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C234" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D234" t="s">
         <v>76</v>
@@ -54068,10 +54064,10 @@
         <v>25</v>
       </c>
       <c r="I234" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J234" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K234">
         <v>2</v>
@@ -54263,15 +54259,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B235" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C235" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D235" t="s">
         <v>76</v>
@@ -54289,10 +54285,10 @@
         <v>25</v>
       </c>
       <c r="I235" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J235" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K235">
         <v>2</v>
@@ -54484,15 +54480,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B236" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C236" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D236" t="s">
         <v>76</v>
@@ -54510,10 +54506,10 @@
         <v>25</v>
       </c>
       <c r="I236" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J236" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K236">
         <v>2</v>
@@ -54705,15 +54701,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B237" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C237" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D237" t="s">
         <v>76</v>
@@ -54731,10 +54727,10 @@
         <v>25</v>
       </c>
       <c r="I237" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J237" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K237">
         <v>2</v>
@@ -54926,15 +54922,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B238" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C238" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D238" t="s">
         <v>76</v>
@@ -54952,10 +54948,10 @@
         <v>25</v>
       </c>
       <c r="I238" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J238" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K238">
         <v>2</v>
@@ -55147,15 +55143,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B239" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C239" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D239" t="s">
         <v>76</v>
@@ -55173,10 +55169,10 @@
         <v>25</v>
       </c>
       <c r="I239" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J239" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K239">
         <v>2</v>
@@ -55368,15 +55364,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B240" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C240" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D240" t="s">
         <v>76</v>
@@ -55394,10 +55390,10 @@
         <v>25</v>
       </c>
       <c r="I240" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J240" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K240">
         <v>2</v>
@@ -55589,15 +55585,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B241" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C241" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D241" t="s">
         <v>76</v>
@@ -55615,10 +55611,10 @@
         <v>25</v>
       </c>
       <c r="I241" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J241" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K241">
         <v>2</v>
@@ -55810,15 +55806,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B242" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C242" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D242" t="s">
         <v>76</v>
@@ -55836,10 +55832,10 @@
         <v>25</v>
       </c>
       <c r="I242" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J242" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K242">
         <v>2</v>
@@ -56031,15 +56027,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B243" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C243" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D243" t="s">
         <v>76</v>
@@ -56057,10 +56053,10 @@
         <v>25</v>
       </c>
       <c r="I243" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J243" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K243">
         <v>2</v>
@@ -56252,15 +56248,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B244" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C244" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D244" t="s">
         <v>76</v>
@@ -56272,16 +56268,16 @@
         <v>15.018378999999999</v>
       </c>
       <c r="G244" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H244">
         <v>26</v>
       </c>
       <c r="I244" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J244" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K244">
         <v>2</v>
@@ -56473,15 +56469,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B245" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C245" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D245" t="s">
         <v>76</v>
@@ -56493,16 +56489,16 @@
         <v>15.748587000000001</v>
       </c>
       <c r="G245" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H245">
         <v>26</v>
       </c>
       <c r="I245" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="J245" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K245">
         <v>2</v>
@@ -56694,15 +56690,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B246" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C246" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D246" t="s">
         <v>76</v>
@@ -56714,16 +56710,16 @@
         <v>29.601427999999999</v>
       </c>
       <c r="G246" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H246">
         <v>27</v>
       </c>
       <c r="I246" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J246" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K246">
         <v>2</v>
@@ -56915,15 +56911,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B247" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C247" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D247" t="s">
         <v>76</v>
@@ -56935,16 +56931,16 @@
         <v>29.715226000000001</v>
       </c>
       <c r="G247" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H247">
         <v>27</v>
       </c>
       <c r="I247" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J247" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K247">
         <v>2</v>
@@ -57136,15 +57132,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B248" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C248" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D248" t="s">
         <v>76</v>
@@ -57156,13 +57152,13 @@
         <v>29.715226000000001</v>
       </c>
       <c r="G248" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H248">
         <v>27</v>
       </c>
       <c r="I248" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J248" t="s">
         <v>141</v>
@@ -57357,15 +57353,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B249" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C249" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D249" t="s">
         <v>76</v>
@@ -57377,13 +57373,13 @@
         <v>29.601427999999999</v>
       </c>
       <c r="G249" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H249">
         <v>27</v>
       </c>
       <c r="I249" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J249" t="s">
         <v>140</v>
@@ -57578,15 +57574,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B250" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C250" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D250" t="s">
         <v>76</v>
@@ -57598,16 +57594,16 @@
         <v>29.601427999999999</v>
       </c>
       <c r="G250" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H250">
         <v>27</v>
       </c>
       <c r="I250" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J250" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K250">
         <v>2</v>
@@ -57799,15 +57795,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B251" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C251" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D251" t="s">
         <v>76</v>
@@ -57819,13 +57815,13 @@
         <v>29.715226000000001</v>
       </c>
       <c r="G251" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H251">
         <v>27</v>
       </c>
       <c r="I251" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J251" t="s">
         <v>79</v>
@@ -58020,15 +58016,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
+        <v>340</v>
+      </c>
+      <c r="B252" t="s">
+        <v>341</v>
+      </c>
+      <c r="C252" t="s">
         <v>342</v>
-      </c>
-      <c r="B252" t="s">
-        <v>343</v>
-      </c>
-      <c r="C252" t="s">
-        <v>344</v>
       </c>
       <c r="D252" t="s">
         <v>76</v>
@@ -58040,13 +58036,13 @@
         <v>12.020284999999999</v>
       </c>
       <c r="G252" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H252">
         <v>28</v>
       </c>
       <c r="I252" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J252" t="s">
         <v>149</v>
@@ -58064,7 +58060,7 @@
         <v>81</v>
       </c>
       <c r="O252" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="P252" t="s">
         <v>82</v>
@@ -58241,15 +58237,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
+        <v>340</v>
+      </c>
+      <c r="B253" t="s">
+        <v>341</v>
+      </c>
+      <c r="C253" t="s">
         <v>342</v>
-      </c>
-      <c r="B253" t="s">
-        <v>343</v>
-      </c>
-      <c r="C253" t="s">
-        <v>344</v>
       </c>
       <c r="D253" t="s">
         <v>76</v>
@@ -58261,13 +58257,13 @@
         <v>11.99967</v>
       </c>
       <c r="G253" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H253">
         <v>28</v>
       </c>
       <c r="I253" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J253" t="s">
         <v>97</v>
@@ -58462,15 +58458,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B254" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C254" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D254" t="s">
         <v>76</v>
@@ -58482,16 +58478,16 @@
         <v>10.634898</v>
       </c>
       <c r="G254" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H254">
         <v>29</v>
       </c>
       <c r="I254" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J254" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K254">
         <v>2</v>
@@ -58506,7 +58502,7 @@
         <v>88</v>
       </c>
       <c r="O254" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P254" t="s">
         <v>82</v>
@@ -58683,15 +58679,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B255" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C255" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D255" t="s">
         <v>76</v>
@@ -58703,13 +58699,13 @@
         <v>10.634842000000001</v>
       </c>
       <c r="G255" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H255">
         <v>29</v>
       </c>
       <c r="I255" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J255" t="s">
         <v>141</v>
@@ -58724,7 +58720,7 @@
         <v>87</v>
       </c>
       <c r="N255" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="O255" t="s">
         <v>88</v>
@@ -58904,15 +58900,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B256" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C256" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D256" t="s">
         <v>76</v>
@@ -58924,13 +58920,13 @@
         <v>10.595088000000001</v>
       </c>
       <c r="G256" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H256">
         <v>29</v>
       </c>
       <c r="I256" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J256" t="s">
         <v>141</v>
@@ -58945,10 +58941,10 @@
         <v>87</v>
       </c>
       <c r="N256" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O256" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P256" t="s">
         <v>82</v>
@@ -59125,15 +59121,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B257" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C257" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D257" t="s">
         <v>76</v>
@@ -59145,13 +59141,13 @@
         <v>10.595813</v>
       </c>
       <c r="G257" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H257">
         <v>29</v>
       </c>
       <c r="I257" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J257" t="s">
         <v>203</v>
@@ -59169,7 +59165,7 @@
         <v>98</v>
       </c>
       <c r="O257" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P257" t="s">
         <v>82</v>
@@ -59346,15 +59342,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B258" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C258" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D258" t="s">
         <v>76</v>
@@ -59372,10 +59368,10 @@
         <v>25</v>
       </c>
       <c r="I258" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J258" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K258">
         <v>1</v>
@@ -59567,15 +59563,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B259" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C259" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D259" t="s">
         <v>76</v>
@@ -59593,10 +59589,10 @@
         <v>25</v>
       </c>
       <c r="I259" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J259" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K259">
         <v>1</v>
@@ -59788,15 +59784,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B260" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C260" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D260" t="s">
         <v>76</v>
@@ -59814,10 +59810,10 @@
         <v>25</v>
       </c>
       <c r="I260" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J260" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K260">
         <v>1</v>
@@ -60009,15 +60005,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B261" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C261" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D261" t="s">
         <v>76</v>
@@ -60035,10 +60031,10 @@
         <v>25</v>
       </c>
       <c r="I261" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J261" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K261">
         <v>1</v>
@@ -60230,15 +60226,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B262" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C262" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D262" t="s">
         <v>76</v>
@@ -60256,10 +60252,10 @@
         <v>25</v>
       </c>
       <c r="I262" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J262" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K262">
         <v>1</v>
@@ -60451,15 +60447,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B263" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C263" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D263" t="s">
         <v>76</v>
@@ -60477,10 +60473,10 @@
         <v>25</v>
       </c>
       <c r="I263" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J263" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K263">
         <v>1</v>
@@ -60672,15 +60668,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B264" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C264" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D264" t="s">
         <v>76</v>
@@ -60698,10 +60694,10 @@
         <v>25</v>
       </c>
       <c r="I264" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J264" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K264">
         <v>1</v>
@@ -60893,15 +60889,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B265" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C265" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D265" t="s">
         <v>76</v>
@@ -60919,10 +60915,10 @@
         <v>25</v>
       </c>
       <c r="I265" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J265" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K265">
         <v>1</v>
@@ -61114,15 +61110,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B266" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C266" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D266" t="s">
         <v>76</v>
@@ -61140,10 +61136,10 @@
         <v>25</v>
       </c>
       <c r="I266" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J266" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="K266">
         <v>1</v>
@@ -61155,7 +61151,7 @@
         <v>80</v>
       </c>
       <c r="N266" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="O266" t="s">
         <v>82</v>
@@ -61335,15 +61331,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B267" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C267" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D267" t="s">
         <v>76</v>
@@ -61361,10 +61357,10 @@
         <v>25</v>
       </c>
       <c r="I267" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J267" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="K267">
         <v>1</v>
@@ -61556,15 +61552,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B268" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C268" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D268" t="s">
         <v>76</v>
@@ -61582,10 +61578,10 @@
         <v>25</v>
       </c>
       <c r="I268" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J268" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K268">
         <v>1</v>
@@ -61777,15 +61773,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B269" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C269" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D269" t="s">
         <v>76</v>
@@ -61803,10 +61799,10 @@
         <v>25</v>
       </c>
       <c r="I269" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J269" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K269">
         <v>1</v>
@@ -61998,15 +61994,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B270" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C270" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D270" t="s">
         <v>76</v>
@@ -62024,10 +62020,10 @@
         <v>25</v>
       </c>
       <c r="I270" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J270" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K270">
         <v>1</v>
@@ -62219,15 +62215,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B271" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C271" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D271" t="s">
         <v>76</v>
@@ -62245,10 +62241,10 @@
         <v>25</v>
       </c>
       <c r="I271" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J271" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K271">
         <v>1</v>
@@ -62440,15 +62436,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B272" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C272" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D272" t="s">
         <v>76</v>
@@ -62466,10 +62462,10 @@
         <v>25</v>
       </c>
       <c r="I272" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J272" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K272">
         <v>1</v>
@@ -62661,15 +62657,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B273" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C273" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D273" t="s">
         <v>76</v>
@@ -62687,10 +62683,10 @@
         <v>25</v>
       </c>
       <c r="I273" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J273" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="K273">
         <v>1</v>
@@ -62882,15 +62878,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B274" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C274" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D274" t="s">
         <v>76</v>
@@ -62902,13 +62898,13 @@
         <v>29.601427999999999</v>
       </c>
       <c r="G274" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H274">
         <v>27</v>
       </c>
       <c r="I274" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J274" t="s">
         <v>149</v>
@@ -63103,15 +63099,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B275" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C275" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D275" t="s">
         <v>76</v>
@@ -63123,13 +63119,13 @@
         <v>29.601427999999999</v>
       </c>
       <c r="G275" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H275">
         <v>27</v>
       </c>
       <c r="I275" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J275" t="s">
         <v>247</v>
@@ -63324,15 +63320,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B276" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C276" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D276" t="s">
         <v>76</v>
@@ -63344,13 +63340,13 @@
         <v>29.715226000000001</v>
       </c>
       <c r="G276" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H276">
         <v>27</v>
       </c>
       <c r="I276" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J276" t="s">
         <v>140</v>
@@ -63365,7 +63361,7 @@
         <v>80</v>
       </c>
       <c r="N276" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O276" t="s">
         <v>82</v>
@@ -63545,15 +63541,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B277" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C277" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D277" t="s">
         <v>76</v>
@@ -63565,13 +63561,13 @@
         <v>29.601427999999999</v>
       </c>
       <c r="G277" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H277">
         <v>27</v>
       </c>
       <c r="I277" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J277" t="s">
         <v>126</v>
@@ -63766,15 +63762,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B278" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C278" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D278" t="s">
         <v>76</v>
@@ -63786,13 +63782,13 @@
         <v>29.715226000000001</v>
       </c>
       <c r="G278" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H278">
         <v>27</v>
       </c>
       <c r="I278" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J278" t="s">
         <v>126</v>
@@ -63987,15 +63983,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B279" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C279" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D279" t="s">
         <v>76</v>
@@ -64007,16 +64003,16 @@
         <v>29.715226000000001</v>
       </c>
       <c r="G279" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H279">
         <v>27</v>
       </c>
       <c r="I279" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J279" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K279">
         <v>1</v>
@@ -64208,15 +64204,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B280" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C280" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D280" t="s">
         <v>76</v>
@@ -64228,16 +64224,16 @@
         <v>29.601427999999999</v>
       </c>
       <c r="G280" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H280">
         <v>27</v>
       </c>
       <c r="I280" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="J280" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="K280">
         <v>1</v>
@@ -64429,15 +64425,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
+        <v>340</v>
+      </c>
+      <c r="B281" t="s">
+        <v>341</v>
+      </c>
+      <c r="C281" t="s">
         <v>342</v>
-      </c>
-      <c r="B281" t="s">
-        <v>343</v>
-      </c>
-      <c r="C281" t="s">
-        <v>344</v>
       </c>
       <c r="D281" t="s">
         <v>76</v>
@@ -64449,13 +64445,13 @@
         <v>11.998177999999999</v>
       </c>
       <c r="G281" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H281">
         <v>28</v>
       </c>
       <c r="I281" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J281" t="s">
         <v>149</v>
@@ -64650,15 +64646,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
+        <v>340</v>
+      </c>
+      <c r="B282" t="s">
+        <v>341</v>
+      </c>
+      <c r="C282" t="s">
         <v>342</v>
-      </c>
-      <c r="B282" t="s">
-        <v>343</v>
-      </c>
-      <c r="C282" t="s">
-        <v>344</v>
       </c>
       <c r="D282" t="s">
         <v>76</v>
@@ -64670,13 +64666,13 @@
         <v>12.012396000000001</v>
       </c>
       <c r="G282" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H282">
         <v>28</v>
       </c>
       <c r="I282" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J282" t="s">
         <v>97</v>
@@ -64871,15 +64867,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
+        <v>340</v>
+      </c>
+      <c r="B283" t="s">
+        <v>341</v>
+      </c>
+      <c r="C283" t="s">
         <v>342</v>
-      </c>
-      <c r="B283" t="s">
-        <v>343</v>
-      </c>
-      <c r="C283" t="s">
-        <v>344</v>
       </c>
       <c r="D283" t="s">
         <v>76</v>
@@ -64891,13 +64887,13 @@
         <v>12.027183000000001</v>
       </c>
       <c r="G283" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H283">
         <v>28</v>
       </c>
       <c r="I283" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J283" t="s">
         <v>97</v>
@@ -65092,15 +65088,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
+        <v>340</v>
+      </c>
+      <c r="B284" t="s">
+        <v>341</v>
+      </c>
+      <c r="C284" t="s">
         <v>342</v>
-      </c>
-      <c r="B284" t="s">
-        <v>343</v>
-      </c>
-      <c r="C284" t="s">
-        <v>344</v>
       </c>
       <c r="D284" t="s">
         <v>76</v>
@@ -65112,13 +65108,13 @@
         <v>11.999364999999999</v>
       </c>
       <c r="G284" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H284">
         <v>28</v>
       </c>
       <c r="I284" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J284" t="s">
         <v>97</v>
@@ -65313,15 +65309,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
+        <v>340</v>
+      </c>
+      <c r="B285" t="s">
+        <v>341</v>
+      </c>
+      <c r="C285" t="s">
         <v>342</v>
-      </c>
-      <c r="B285" t="s">
-        <v>343</v>
-      </c>
-      <c r="C285" t="s">
-        <v>344</v>
       </c>
       <c r="D285" t="s">
         <v>76</v>
@@ -65333,13 +65329,13 @@
         <v>12.004248</v>
       </c>
       <c r="G285" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H285">
         <v>28</v>
       </c>
       <c r="I285" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="J285" t="s">
         <v>97</v>
@@ -65354,7 +65350,7 @@
         <v>80</v>
       </c>
       <c r="N285" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="O285" t="s">
         <v>82</v>
@@ -65534,15 +65530,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B286" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C286" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D286" t="s">
         <v>76</v>
@@ -65554,13 +65550,13 @@
         <v>10.634898</v>
       </c>
       <c r="G286" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H286">
         <v>29</v>
       </c>
       <c r="I286" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J286" t="s">
         <v>300</v>
@@ -65755,15 +65751,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B287" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C287" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D287" t="s">
         <v>76</v>
@@ -65775,16 +65771,16 @@
         <v>10.594967</v>
       </c>
       <c r="G287" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H287">
         <v>29</v>
       </c>
       <c r="I287" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J287" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K287">
         <v>1</v>
@@ -65976,15 +65972,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B288" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C288" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D288" t="s">
         <v>76</v>
@@ -65996,16 +65992,16 @@
         <v>10.634842000000001</v>
       </c>
       <c r="G288" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H288">
         <v>29</v>
       </c>
       <c r="I288" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J288" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K288">
         <v>1</v>
@@ -66197,15 +66193,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B289" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C289" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D289" t="s">
         <v>76</v>
@@ -66217,16 +66213,16 @@
         <v>10.634842000000001</v>
       </c>
       <c r="G289" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H289">
         <v>29</v>
       </c>
       <c r="I289" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J289" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K289">
         <v>1</v>
@@ -66418,15 +66414,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B290" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C290" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D290" t="s">
         <v>76</v>
@@ -66438,13 +66434,13 @@
         <v>10.634898</v>
       </c>
       <c r="G290" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H290">
         <v>29</v>
       </c>
       <c r="I290" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J290" t="s">
         <v>174</v>
@@ -66639,15 +66635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B291" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C291" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D291" t="s">
         <v>76</v>
@@ -66659,13 +66655,13 @@
         <v>10.5966</v>
       </c>
       <c r="G291" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H291">
         <v>29</v>
       </c>
       <c r="I291" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J291" t="s">
         <v>141</v>
@@ -66860,15 +66856,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B292" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C292" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D292" t="s">
         <v>76</v>
@@ -66880,13 +66876,13 @@
         <v>10.594967</v>
       </c>
       <c r="G292" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H292">
         <v>29</v>
       </c>
       <c r="I292" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J292" t="s">
         <v>141</v>
@@ -66901,7 +66897,7 @@
         <v>87</v>
       </c>
       <c r="N292" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="O292" t="s">
         <v>82</v>
@@ -67081,15 +67077,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B293" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C293" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D293" t="s">
         <v>76</v>
@@ -67101,13 +67097,13 @@
         <v>10.634898</v>
       </c>
       <c r="G293" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H293">
         <v>29</v>
       </c>
       <c r="I293" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J293" t="s">
         <v>203</v>
@@ -67302,15 +67298,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B294" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C294" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D294" t="s">
         <v>76</v>
@@ -67322,13 +67318,13 @@
         <v>10.593458999999999</v>
       </c>
       <c r="G294" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H294">
         <v>29</v>
       </c>
       <c r="I294" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J294" t="s">
         <v>203</v>
@@ -67523,15 +67519,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B295" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C295" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D295" t="s">
         <v>76</v>
@@ -67543,13 +67539,13 @@
         <v>10.59679</v>
       </c>
       <c r="G295" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H295">
         <v>29</v>
       </c>
       <c r="I295" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J295" t="s">
         <v>203</v>
@@ -67564,7 +67560,7 @@
         <v>87</v>
       </c>
       <c r="N295" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="O295" t="s">
         <v>82</v>
@@ -67744,15 +67740,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B296" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C296" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D296" t="s">
         <v>76</v>
@@ -67764,13 +67760,13 @@
         <v>10.59501</v>
       </c>
       <c r="G296" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H296">
         <v>29</v>
       </c>
       <c r="I296" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J296" t="s">
         <v>203</v>
@@ -67965,15 +67961,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B297" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C297" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D297" t="s">
         <v>76</v>
@@ -67985,13 +67981,13 @@
         <v>10.594967</v>
       </c>
       <c r="G297" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H297">
         <v>29</v>
       </c>
       <c r="I297" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="J297" t="s">
         <v>203</v>
@@ -68186,15 +68182,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
+        <v>414</v>
+      </c>
+      <c r="B298" t="s">
+        <v>415</v>
+      </c>
+      <c r="C298" t="s">
         <v>416</v>
-      </c>
-      <c r="B298" t="s">
-        <v>417</v>
-      </c>
-      <c r="C298" t="s">
-        <v>418</v>
       </c>
       <c r="D298" t="s">
         <v>76</v>
@@ -68206,16 +68202,16 @@
         <v>28.076083000000001</v>
       </c>
       <c r="G298" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H298">
         <v>36</v>
       </c>
       <c r="I298" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J298" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K298">
         <v>18</v>
@@ -68239,10 +68235,10 @@
         <v>268</v>
       </c>
       <c r="R298" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="S298" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="T298" t="s">
         <v>244</v>
@@ -68254,25 +68250,25 @@
         <v>220</v>
       </c>
       <c r="W298" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="X298" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="Y298" t="s">
         <v>252</v>
       </c>
       <c r="Z298" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AA298" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AB298" t="s">
         <v>248</v>
       </c>
       <c r="AC298" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AD298" t="s">
         <v>100</v>
@@ -68407,15 +68403,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
+        <v>414</v>
+      </c>
+      <c r="B299" t="s">
+        <v>415</v>
+      </c>
+      <c r="C299" t="s">
         <v>416</v>
-      </c>
-      <c r="B299" t="s">
-        <v>417</v>
-      </c>
-      <c r="C299" t="s">
-        <v>418</v>
       </c>
       <c r="D299" t="s">
         <v>76</v>
@@ -68427,13 +68423,13 @@
         <v>28.076083000000001</v>
       </c>
       <c r="G299" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H299">
         <v>36</v>
       </c>
       <c r="I299" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J299" t="s">
         <v>289</v>
@@ -68454,22 +68450,22 @@
         <v>120</v>
       </c>
       <c r="P299" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q299" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="R299" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="S299" t="s">
         <v>284</v>
       </c>
       <c r="T299" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="U299" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="V299" t="s">
         <v>220</v>
@@ -68628,15 +68624,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
+        <v>414</v>
+      </c>
+      <c r="B300" t="s">
+        <v>415</v>
+      </c>
+      <c r="C300" t="s">
         <v>416</v>
-      </c>
-      <c r="B300" t="s">
-        <v>417</v>
-      </c>
-      <c r="C300" t="s">
-        <v>418</v>
       </c>
       <c r="D300" t="s">
         <v>76</v>
@@ -68648,13 +68644,13 @@
         <v>28.076083000000001</v>
       </c>
       <c r="G300" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H300">
         <v>36</v>
       </c>
       <c r="I300" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J300" t="s">
         <v>283</v>
@@ -68675,13 +68671,13 @@
         <v>104</v>
       </c>
       <c r="P300" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="Q300" t="s">
         <v>244</v>
       </c>
       <c r="R300" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="S300" t="s">
         <v>82</v>
@@ -68849,15 +68845,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
+        <v>414</v>
+      </c>
+      <c r="B301" t="s">
+        <v>415</v>
+      </c>
+      <c r="C301" t="s">
         <v>416</v>
-      </c>
-      <c r="B301" t="s">
-        <v>417</v>
-      </c>
-      <c r="C301" t="s">
-        <v>418</v>
       </c>
       <c r="D301" t="s">
         <v>76</v>
@@ -68869,13 +68865,13 @@
         <v>28.076083000000001</v>
       </c>
       <c r="G301" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H301">
         <v>36</v>
       </c>
       <c r="I301" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J301" t="s">
         <v>141</v>
@@ -68902,7 +68898,7 @@
         <v>123</v>
       </c>
       <c r="R301" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="S301" t="s">
         <v>284</v>
@@ -68911,22 +68907,22 @@
         <v>268</v>
       </c>
       <c r="U301" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V301" t="s">
         <v>244</v>
       </c>
       <c r="W301" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="X301" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Y301" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="Z301" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AA301" t="s">
         <v>248</v>
@@ -68935,10 +68931,10 @@
         <v>213</v>
       </c>
       <c r="AC301" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AD301" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AE301" t="s">
         <v>82</v>
@@ -69070,15 +69066,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
+        <v>414</v>
+      </c>
+      <c r="B302" t="s">
+        <v>415</v>
+      </c>
+      <c r="C302" t="s">
         <v>416</v>
-      </c>
-      <c r="B302" t="s">
-        <v>417</v>
-      </c>
-      <c r="C302" t="s">
-        <v>418</v>
       </c>
       <c r="D302" t="s">
         <v>76</v>
@@ -69090,13 +69086,13 @@
         <v>28.076083000000001</v>
       </c>
       <c r="G302" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H302">
         <v>36</v>
       </c>
       <c r="I302" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J302" t="s">
         <v>247</v>
@@ -69132,19 +69128,19 @@
         <v>120</v>
       </c>
       <c r="U302" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="V302" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="W302" t="s">
         <v>284</v>
       </c>
       <c r="X302" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="Y302" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="Z302" t="s">
         <v>267</v>
@@ -69153,7 +69149,7 @@
         <v>268</v>
       </c>
       <c r="AB302" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AC302" t="s">
         <v>244</v>
@@ -69165,10 +69161,10 @@
         <v>265</v>
       </c>
       <c r="AF302" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="AG302" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AH302" t="s">
         <v>220</v>
@@ -69177,19 +69173,19 @@
         <v>243</v>
       </c>
       <c r="AJ302" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AK302" t="s">
         <v>252</v>
       </c>
       <c r="AL302" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AM302" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AN302" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AO302" t="s">
         <v>248</v>
@@ -69198,22 +69194,22 @@
         <v>229</v>
       </c>
       <c r="AQ302" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AR302" t="s">
         <v>221</v>
       </c>
       <c r="AS302" t="s">
+        <v>436</v>
+      </c>
+      <c r="AT302" t="s">
+        <v>437</v>
+      </c>
+      <c r="AU302" t="s">
         <v>438</v>
       </c>
-      <c r="AT302" t="s">
+      <c r="AV302" t="s">
         <v>439</v>
-      </c>
-      <c r="AU302" t="s">
-        <v>440</v>
-      </c>
-      <c r="AV302" t="s">
-        <v>441</v>
       </c>
       <c r="AW302" t="s">
         <v>82</v>
@@ -69291,15 +69287,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="303" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
+        <v>414</v>
+      </c>
+      <c r="B303" t="s">
+        <v>415</v>
+      </c>
+      <c r="C303" t="s">
         <v>416</v>
-      </c>
-      <c r="B303" t="s">
-        <v>417</v>
-      </c>
-      <c r="C303" t="s">
-        <v>418</v>
       </c>
       <c r="D303" t="s">
         <v>76</v>
@@ -69311,16 +69307,16 @@
         <v>28.076083000000001</v>
       </c>
       <c r="G303" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H303">
         <v>36</v>
       </c>
       <c r="I303" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J303" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K303">
         <v>11</v>
@@ -69353,10 +69349,10 @@
         <v>268</v>
       </c>
       <c r="U303" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="V303" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="W303" t="s">
         <v>248</v>
@@ -69512,15 +69508,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
+        <v>414</v>
+      </c>
+      <c r="B304" t="s">
+        <v>415</v>
+      </c>
+      <c r="C304" t="s">
         <v>416</v>
-      </c>
-      <c r="B304" t="s">
-        <v>417</v>
-      </c>
-      <c r="C304" t="s">
-        <v>418</v>
       </c>
       <c r="D304" t="s">
         <v>76</v>
@@ -69532,16 +69528,16 @@
         <v>28.076083000000001</v>
       </c>
       <c r="G304" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H304">
         <v>36</v>
       </c>
       <c r="I304" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J304" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K304">
         <v>3</v>
@@ -69559,7 +69555,7 @@
         <v>81</v>
       </c>
       <c r="P304" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="Q304" t="s">
         <v>82</v>
@@ -69733,15 +69729,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
+        <v>414</v>
+      </c>
+      <c r="B305" t="s">
+        <v>415</v>
+      </c>
+      <c r="C305" t="s">
         <v>416</v>
-      </c>
-      <c r="B305" t="s">
-        <v>417</v>
-      </c>
-      <c r="C305" t="s">
-        <v>418</v>
       </c>
       <c r="D305" t="s">
         <v>76</v>
@@ -69753,16 +69749,16 @@
         <v>28.076083000000001</v>
       </c>
       <c r="G305" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H305">
         <v>36</v>
       </c>
       <c r="I305" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="J305" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K305">
         <v>7</v>
@@ -69789,7 +69785,7 @@
         <v>104</v>
       </c>
       <c r="S305" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="T305" t="s">
         <v>244</v>
@@ -69954,12 +69950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B306" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C306" t="s">
         <v>304</v>
@@ -69974,16 +69970,16 @@
         <v>27.587071999999999</v>
       </c>
       <c r="G306" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H306">
         <v>38</v>
       </c>
       <c r="I306" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="J306" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="K306">
         <v>26</v>
@@ -69995,13 +69991,13 @@
         <v>80</v>
       </c>
       <c r="N306" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="O306" t="s">
         <v>307</v>
       </c>
       <c r="P306" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q306" t="s">
         <v>278</v>
@@ -70010,13 +70006,13 @@
         <v>284</v>
       </c>
       <c r="S306" t="s">
+        <v>447</v>
+      </c>
+      <c r="T306" t="s">
+        <v>448</v>
+      </c>
+      <c r="U306" t="s">
         <v>449</v>
-      </c>
-      <c r="T306" t="s">
-        <v>450</v>
-      </c>
-      <c r="U306" t="s">
-        <v>451</v>
       </c>
       <c r="V306" t="s">
         <v>123</v>
@@ -70034,7 +70030,7 @@
         <v>281</v>
       </c>
       <c r="AA306" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="AB306" t="s">
         <v>89</v>
@@ -70043,7 +70039,7 @@
         <v>265</v>
       </c>
       <c r="AD306" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AE306" t="s">
         <v>248</v>
@@ -70052,22 +70048,22 @@
         <v>244</v>
       </c>
       <c r="AG306" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH306" t="s">
+        <v>432</v>
+      </c>
+      <c r="AI306" t="s">
+        <v>452</v>
+      </c>
+      <c r="AJ306" t="s">
+        <v>425</v>
+      </c>
+      <c r="AK306" t="s">
         <v>453</v>
       </c>
-      <c r="AH306" t="s">
-        <v>434</v>
-      </c>
-      <c r="AI306" t="s">
+      <c r="AL306" t="s">
         <v>454</v>
-      </c>
-      <c r="AJ306" t="s">
-        <v>427</v>
-      </c>
-      <c r="AK306" t="s">
-        <v>455</v>
-      </c>
-      <c r="AL306" t="s">
-        <v>456</v>
       </c>
       <c r="AM306" t="s">
         <v>272</v>
@@ -70175,15 +70171,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="307" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
+        <v>455</v>
+      </c>
+      <c r="B307" t="s">
+        <v>456</v>
+      </c>
+      <c r="C307" t="s">
         <v>457</v>
-      </c>
-      <c r="B307" t="s">
-        <v>458</v>
-      </c>
-      <c r="C307" t="s">
-        <v>459</v>
       </c>
       <c r="D307" t="s">
         <v>76</v>
@@ -70195,16 +70191,16 @@
         <v>36.741388999999998</v>
       </c>
       <c r="G307" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H307">
         <v>39</v>
       </c>
       <c r="I307" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="J307" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K307">
         <v>27</v>
@@ -70225,7 +70221,7 @@
         <v>223</v>
       </c>
       <c r="Q307" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="R307" t="s">
         <v>225</v>
@@ -70249,22 +70245,22 @@
         <v>224</v>
       </c>
       <c r="Y307" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Z307" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AA307" t="s">
         <v>233</v>
       </c>
       <c r="AB307" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="AC307" t="s">
         <v>210</v>
       </c>
       <c r="AD307" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AE307" t="s">
         <v>280</v>
@@ -70273,7 +70269,7 @@
         <v>221</v>
       </c>
       <c r="AG307" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AH307" t="s">
         <v>252</v>
@@ -70396,15 +70392,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B308" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C308" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D308" t="s">
         <v>76</v>
@@ -70416,13 +70412,13 @@
         <v>40.733333000000002</v>
       </c>
       <c r="G308" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H308">
         <v>40</v>
       </c>
       <c r="I308" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J308" t="s">
         <v>112</v>
@@ -70443,7 +70439,7 @@
         <v>220</v>
       </c>
       <c r="P308" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q308" t="s">
         <v>223</v>
@@ -70617,15 +70613,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B309" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C309" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D309" t="s">
         <v>76</v>
@@ -70637,13 +70633,13 @@
         <v>40.733333000000002</v>
       </c>
       <c r="G309" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H309">
         <v>40</v>
       </c>
       <c r="I309" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J309" t="s">
         <v>127</v>
@@ -70664,7 +70660,7 @@
         <v>220</v>
       </c>
       <c r="P309" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q309" t="s">
         <v>223</v>
@@ -70676,7 +70672,7 @@
         <v>150</v>
       </c>
       <c r="T309" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U309" t="s">
         <v>225</v>
@@ -70688,7 +70684,7 @@
         <v>218</v>
       </c>
       <c r="X309" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Y309" t="s">
         <v>227</v>
@@ -70838,15 +70834,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B310" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C310" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D310" t="s">
         <v>76</v>
@@ -70858,13 +70854,13 @@
         <v>40.216667000000001</v>
       </c>
       <c r="G310" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H310">
         <v>40</v>
       </c>
       <c r="I310" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J310" t="s">
         <v>112</v>
@@ -71059,15 +71055,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B311" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C311" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D311" t="s">
         <v>76</v>
@@ -71079,13 +71075,13 @@
         <v>40.216667000000001</v>
       </c>
       <c r="G311" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H311">
         <v>40</v>
       </c>
       <c r="I311" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J311" t="s">
         <v>127</v>
@@ -71106,7 +71102,7 @@
         <v>220</v>
       </c>
       <c r="P311" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="Q311" t="s">
         <v>223</v>
@@ -71118,7 +71114,7 @@
         <v>150</v>
       </c>
       <c r="T311" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U311" t="s">
         <v>246</v>
@@ -71280,15 +71276,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B312" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C312" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D312" t="s">
         <v>76</v>
@@ -71300,13 +71296,13 @@
         <v>40.733333000000002</v>
       </c>
       <c r="G312" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H312">
         <v>40</v>
       </c>
       <c r="I312" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J312" t="s">
         <v>79</v>
@@ -71339,7 +71335,7 @@
         <v>121</v>
       </c>
       <c r="T312" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="U312" t="s">
         <v>120</v>
@@ -71501,15 +71497,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B313" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C313" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D313" t="s">
         <v>76</v>
@@ -71521,13 +71517,13 @@
         <v>40.216667000000001</v>
       </c>
       <c r="G313" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H313">
         <v>40</v>
       </c>
       <c r="I313" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="J313" t="s">
         <v>79</v>
@@ -71560,7 +71556,7 @@
         <v>121</v>
       </c>
       <c r="T313" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="U313" t="s">
         <v>120</v>
@@ -71722,15 +71718,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
+        <v>472</v>
+      </c>
+      <c r="B314" t="s">
+        <v>473</v>
+      </c>
+      <c r="C314" t="s">
         <v>474</v>
-      </c>
-      <c r="B314" t="s">
-        <v>475</v>
-      </c>
-      <c r="C314" t="s">
-        <v>476</v>
       </c>
       <c r="D314" t="s">
         <v>76</v>
@@ -71742,13 +71738,13 @@
         <v>3.879839</v>
       </c>
       <c r="G314" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H314">
         <v>41</v>
       </c>
       <c r="I314" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J314" t="s">
         <v>247</v>
@@ -71763,31 +71759,31 @@
         <v>80</v>
       </c>
       <c r="N314" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O314" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="P314" t="s">
+        <v>477</v>
+      </c>
+      <c r="Q314" t="s">
+        <v>478</v>
+      </c>
+      <c r="R314" t="s">
         <v>479</v>
       </c>
-      <c r="Q314" t="s">
+      <c r="S314" t="s">
         <v>480</v>
-      </c>
-      <c r="R314" t="s">
-        <v>481</v>
-      </c>
-      <c r="S314" t="s">
-        <v>482</v>
       </c>
       <c r="T314" t="s">
         <v>268</v>
       </c>
       <c r="U314" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="V314" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="W314" t="s">
         <v>81</v>
@@ -71799,7 +71795,7 @@
         <v>102</v>
       </c>
       <c r="Z314" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AA314" t="s">
         <v>99</v>
@@ -71943,12 +71939,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B315" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C315" t="s">
         <v>182</v>
@@ -71963,13 +71959,13 @@
         <v>-26.898889</v>
       </c>
       <c r="G315" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H315">
         <v>42</v>
       </c>
       <c r="I315" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="J315" t="s">
         <v>149</v>
@@ -71999,10 +71995,10 @@
         <v>81</v>
       </c>
       <c r="S315" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="T315" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U315" t="s">
         <v>105</v>
@@ -72164,12 +72160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B316" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C316" t="s">
         <v>82</v>
@@ -72190,7 +72186,7 @@
         <v>43</v>
       </c>
       <c r="I316" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J316" t="s">
         <v>112</v>
@@ -72208,7 +72204,7 @@
         <v>121</v>
       </c>
       <c r="O316" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="P316" t="s">
         <v>227</v>
@@ -72385,12 +72381,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B317" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C317" t="s">
         <v>82</v>
@@ -72411,7 +72407,7 @@
         <v>43</v>
       </c>
       <c r="I317" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J317" t="s">
         <v>127</v>
@@ -72432,10 +72428,10 @@
         <v>118</v>
       </c>
       <c r="P317" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Q317" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="R317" t="s">
         <v>227</v>
@@ -72453,7 +72449,7 @@
         <v>235</v>
       </c>
       <c r="W317" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="X317" t="s">
         <v>233</v>
@@ -72606,12 +72602,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B318" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C318" t="s">
         <v>82</v>
@@ -72632,10 +72628,10 @@
         <v>43</v>
       </c>
       <c r="I318" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J318" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K318">
         <v>7</v>
@@ -72665,7 +72661,7 @@
         <v>233</v>
       </c>
       <c r="T318" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="U318" t="s">
         <v>82</v>
@@ -72827,12 +72823,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B319" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C319" t="s">
         <v>82</v>
@@ -72853,10 +72849,10 @@
         <v>43</v>
       </c>
       <c r="I319" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J319" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K319">
         <v>4</v>
@@ -73048,12 +73044,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B320" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C320" t="s">
         <v>82</v>
@@ -73074,10 +73070,10 @@
         <v>43</v>
       </c>
       <c r="I320" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J320" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="K320">
         <v>1</v>
@@ -73269,12 +73265,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B321" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C321" t="s">
         <v>82</v>
@@ -73295,7 +73291,7 @@
         <v>43</v>
       </c>
       <c r="I321" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="J321" t="s">
         <v>245</v>
@@ -73325,13 +73321,13 @@
         <v>118</v>
       </c>
       <c r="S321" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="T321" t="s">
         <v>235</v>
       </c>
       <c r="U321" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="V321" t="s">
         <v>82</v>
@@ -73490,15 +73486,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B322" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C322" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D322" t="s">
         <v>76</v>
@@ -73516,10 +73512,10 @@
         <v>44</v>
       </c>
       <c r="I322" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="J322" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K322">
         <v>39</v>
@@ -73531,10 +73527,10 @@
         <v>80</v>
       </c>
       <c r="N322" t="s">
+        <v>337</v>
+      </c>
+      <c r="O322" t="s">
         <v>339</v>
-      </c>
-      <c r="O322" t="s">
-        <v>341</v>
       </c>
       <c r="P322" t="s">
         <v>213</v>
@@ -73546,76 +73542,76 @@
         <v>150</v>
       </c>
       <c r="S322" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="T322" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="U322" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="V322" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="W322" t="s">
         <v>223</v>
       </c>
       <c r="X322" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Y322" t="s">
         <v>151</v>
       </c>
       <c r="Z322" t="s">
+        <v>499</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>469</v>
+      </c>
+      <c r="AB322" t="s">
+        <v>500</v>
+      </c>
+      <c r="AC322" t="s">
         <v>501</v>
-      </c>
-      <c r="AA322" t="s">
-        <v>471</v>
-      </c>
-      <c r="AB322" t="s">
-        <v>502</v>
-      </c>
-      <c r="AC322" t="s">
-        <v>503</v>
       </c>
       <c r="AD322" t="s">
         <v>288</v>
       </c>
       <c r="AE322" t="s">
+        <v>502</v>
+      </c>
+      <c r="AF322" t="s">
+        <v>503</v>
+      </c>
+      <c r="AG322" t="s">
         <v>504</v>
       </c>
-      <c r="AF322" t="s">
+      <c r="AH322" t="s">
         <v>505</v>
-      </c>
-      <c r="AG322" t="s">
-        <v>506</v>
-      </c>
-      <c r="AH322" t="s">
-        <v>507</v>
       </c>
       <c r="AI322" t="s">
         <v>100</v>
       </c>
       <c r="AJ322" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AK322" t="s">
         <v>209</v>
       </c>
       <c r="AL322" t="s">
+        <v>506</v>
+      </c>
+      <c r="AM322" t="s">
+        <v>507</v>
+      </c>
+      <c r="AN322" t="s">
         <v>508</v>
-      </c>
-      <c r="AM322" t="s">
-        <v>509</v>
-      </c>
-      <c r="AN322" t="s">
-        <v>510</v>
       </c>
       <c r="AO322" t="s">
         <v>218</v>
       </c>
       <c r="AP322" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AQ322" t="s">
         <v>154</v>
@@ -73624,10 +73620,10 @@
         <v>159</v>
       </c>
       <c r="AS322" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AT322" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AU322" t="s">
         <v>102</v>
@@ -73711,12 +73707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B323" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C323" t="s">
         <v>82</v>
@@ -73737,7 +73733,7 @@
         <v>45</v>
       </c>
       <c r="I323" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J323" t="s">
         <v>149</v>
@@ -73932,12 +73928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B324" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C324" t="s">
         <v>82</v>
@@ -73958,7 +73954,7 @@
         <v>45</v>
       </c>
       <c r="I324" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="J324" t="s">
         <v>149</v>
@@ -74153,12 +74149,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B325" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C325" t="s">
         <v>82</v>
@@ -74179,7 +74175,7 @@
         <v>46</v>
       </c>
       <c r="I325" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J325" t="s">
         <v>180</v>
@@ -74374,12 +74370,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B326" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C326" t="s">
         <v>82</v>
@@ -74400,7 +74396,7 @@
         <v>46</v>
       </c>
       <c r="I326" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J326" t="s">
         <v>180</v>
@@ -74595,12 +74591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B327" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C327" t="s">
         <v>82</v>
@@ -74621,7 +74617,7 @@
         <v>46</v>
       </c>
       <c r="I327" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J327" t="s">
         <v>180</v>
@@ -74816,12 +74812,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B328" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C328" t="s">
         <v>82</v>
@@ -74842,7 +74838,7 @@
         <v>46</v>
       </c>
       <c r="I328" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J328" t="s">
         <v>180</v>
@@ -75037,12 +75033,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B329" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C329" t="s">
         <v>82</v>
@@ -75063,7 +75059,7 @@
         <v>46</v>
       </c>
       <c r="I329" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J329" t="s">
         <v>180</v>
@@ -75258,12 +75254,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B330" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C330" t="s">
         <v>82</v>
@@ -75284,7 +75280,7 @@
         <v>46</v>
       </c>
       <c r="I330" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J330" t="s">
         <v>180</v>
@@ -75479,12 +75475,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B331" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C331" t="s">
         <v>82</v>
@@ -75505,7 +75501,7 @@
         <v>46</v>
       </c>
       <c r="I331" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J331" t="s">
         <v>180</v>
@@ -75700,12 +75696,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B332" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C332" t="s">
         <v>82</v>
@@ -75726,7 +75722,7 @@
         <v>46</v>
       </c>
       <c r="I332" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J332" t="s">
         <v>180</v>
@@ -75921,12 +75917,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B333" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C333" t="s">
         <v>82</v>
@@ -75947,7 +75943,7 @@
         <v>46</v>
       </c>
       <c r="I333" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J333" t="s">
         <v>180</v>
@@ -76142,12 +76138,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B334" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C334" t="s">
         <v>82</v>
@@ -76168,7 +76164,7 @@
         <v>46</v>
       </c>
       <c r="I334" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J334" t="s">
         <v>180</v>
@@ -76363,12 +76359,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B335" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C335" t="s">
         <v>82</v>
@@ -76389,7 +76385,7 @@
         <v>46</v>
       </c>
       <c r="I335" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="J335" t="s">
         <v>180</v>
@@ -76584,12 +76580,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B336" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C336" t="s">
         <v>82</v>
@@ -76610,7 +76606,7 @@
         <v>47</v>
       </c>
       <c r="I336" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J336" t="s">
         <v>127</v>
@@ -76652,22 +76648,22 @@
         <v>220</v>
       </c>
       <c r="W336" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="X336" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Y336" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="Z336" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AA336" t="s">
         <v>233</v>
       </c>
       <c r="AB336" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="AC336" t="s">
         <v>250</v>
@@ -76691,19 +76687,19 @@
         <v>217</v>
       </c>
       <c r="AJ336" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AK336" t="s">
         <v>221</v>
       </c>
       <c r="AL336" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AM336" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AN336" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AO336" t="s">
         <v>120</v>
@@ -76805,12 +76801,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B337" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C337" t="s">
         <v>82</v>
@@ -76831,7 +76827,7 @@
         <v>47</v>
       </c>
       <c r="I337" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J337" t="s">
         <v>112</v>
@@ -76870,28 +76866,28 @@
         <v>220</v>
       </c>
       <c r="V337" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="W337" t="s">
         <v>233</v>
       </c>
       <c r="X337" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Y337" t="s">
         <v>250</v>
       </c>
       <c r="Z337" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AA337" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AB337" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AC337" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AD337" t="s">
         <v>82</v>
@@ -77026,12 +77022,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B338" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C338" t="s">
         <v>82</v>
@@ -77052,10 +77048,10 @@
         <v>47</v>
       </c>
       <c r="I338" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="J338" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="K338">
         <v>23</v>
@@ -77082,19 +77078,19 @@
         <v>230</v>
       </c>
       <c r="S338" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="T338" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="U338" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="V338" t="s">
         <v>233</v>
       </c>
       <c r="W338" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="X338" t="s">
         <v>251</v>
@@ -77103,7 +77099,7 @@
         <v>159</v>
       </c>
       <c r="Z338" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="AA338" t="s">
         <v>120</v>
@@ -77130,7 +77126,7 @@
         <v>99</v>
       </c>
       <c r="AI338" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AJ338" t="s">
         <v>89</v>
@@ -77247,12 +77243,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B339" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C339" t="s">
         <v>82</v>
@@ -77273,10 +77269,10 @@
         <v>48</v>
       </c>
       <c r="I339" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J339" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K339">
         <v>24</v>
@@ -77291,10 +77287,10 @@
         <v>250</v>
       </c>
       <c r="O339" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="P339" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="Q339" t="s">
         <v>217</v>
@@ -77312,7 +77308,7 @@
         <v>230</v>
       </c>
       <c r="V339" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="W339" t="s">
         <v>215</v>
@@ -77324,16 +77320,16 @@
         <v>224</v>
       </c>
       <c r="Z339" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AA339" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="AB339" t="s">
         <v>161</v>
       </c>
       <c r="AC339" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AD339" t="s">
         <v>223</v>
@@ -77342,13 +77338,13 @@
         <v>226</v>
       </c>
       <c r="AF339" t="s">
+        <v>535</v>
+      </c>
+      <c r="AG339" t="s">
+        <v>536</v>
+      </c>
+      <c r="AH339" t="s">
         <v>537</v>
-      </c>
-      <c r="AG339" t="s">
-        <v>538</v>
-      </c>
-      <c r="AH339" t="s">
-        <v>539</v>
       </c>
       <c r="AI339" t="s">
         <v>120</v>
@@ -77357,7 +77353,7 @@
         <v>99</v>
       </c>
       <c r="AK339" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="AL339" t="s">
         <v>82</v>
@@ -77468,12 +77464,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B340" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C340" t="s">
         <v>82</v>
@@ -77488,16 +77484,16 @@
         <v>43.266944000000002</v>
       </c>
       <c r="G340" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H340">
         <v>48</v>
       </c>
       <c r="I340" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="J340" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K340">
         <v>55</v>
@@ -77518,19 +77514,19 @@
         <v>217</v>
       </c>
       <c r="Q340" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="R340" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="S340" t="s">
         <v>214</v>
       </c>
       <c r="T340" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="U340" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="V340" t="s">
         <v>230</v>
@@ -77545,13 +77541,13 @@
         <v>226</v>
       </c>
       <c r="Z340" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AA340" t="s">
         <v>218</v>
       </c>
       <c r="AB340" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AC340" t="s">
         <v>222</v>
@@ -77560,28 +77556,28 @@
         <v>220</v>
       </c>
       <c r="AE340" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AF340" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="AG340" t="s">
         <v>265</v>
       </c>
       <c r="AH340" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AI340" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AJ340" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="AK340" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AL340" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AM340" t="s">
         <v>251</v>
@@ -77590,22 +77586,22 @@
         <v>267</v>
       </c>
       <c r="AO340" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="AP340" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AQ340" t="s">
+        <v>543</v>
+      </c>
+      <c r="AR340" t="s">
+        <v>544</v>
+      </c>
+      <c r="AS340" t="s">
         <v>545</v>
       </c>
-      <c r="AR340" t="s">
-        <v>546</v>
-      </c>
-      <c r="AS340" t="s">
-        <v>547</v>
-      </c>
       <c r="AT340" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AU340" t="s">
         <v>233</v>
@@ -77614,19 +77610,19 @@
         <v>150</v>
       </c>
       <c r="AW340" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="AX340" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="AY340" t="s">
         <v>221</v>
       </c>
       <c r="AZ340" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="BA340" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="BB340" t="s">
         <v>159</v>
@@ -77635,25 +77631,25 @@
         <v>252</v>
       </c>
       <c r="BD340" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="BE340" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="BF340" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="BG340" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="BH340" t="s">
         <v>229</v>
       </c>
       <c r="BI340" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="BJ340" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="BK340" t="s">
         <v>225</v>
@@ -77689,12 +77685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B341" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C341" t="s">
         <v>82</v>
@@ -77715,10 +77711,10 @@
         <v>49</v>
       </c>
       <c r="I341" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J341" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K341">
         <v>16</v>
@@ -77739,10 +77735,10 @@
         <v>225</v>
       </c>
       <c r="Q341" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="R341" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="S341" t="s">
         <v>230</v>
@@ -77754,7 +77750,7 @@
         <v>210</v>
       </c>
       <c r="V341" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="W341" t="s">
         <v>220</v>
@@ -77763,10 +77759,10 @@
         <v>214</v>
       </c>
       <c r="Y341" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="Z341" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AA341" t="s">
         <v>222</v>
@@ -77910,12 +77906,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B342" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C342" t="s">
         <v>82</v>
@@ -77936,10 +77932,10 @@
         <v>49</v>
       </c>
       <c r="I342" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J342" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K342">
         <v>10</v>
@@ -77948,7 +77944,7 @@
         <v>249</v>
       </c>
       <c r="M342" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N342" t="s">
         <v>250</v>
@@ -78131,12 +78127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B343" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C343" t="s">
         <v>82</v>
@@ -78157,10 +78153,10 @@
         <v>49</v>
       </c>
       <c r="I343" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J343" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K343">
         <v>14</v>
@@ -78196,19 +78192,19 @@
         <v>210</v>
       </c>
       <c r="V343" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="W343" t="s">
         <v>222</v>
       </c>
       <c r="X343" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="Y343" t="s">
         <v>223</v>
       </c>
       <c r="Z343" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AA343" t="s">
         <v>105</v>
@@ -78352,12 +78348,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:73" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B344" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C344" t="s">
         <v>82</v>
@@ -78378,10 +78374,10 @@
         <v>49</v>
       </c>
       <c r="I344" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="J344" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="K344">
         <v>17</v>
@@ -78390,7 +78386,7 @@
         <v>169</v>
       </c>
       <c r="M344" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N344" t="s">
         <v>210</v>
@@ -78411,7 +78407,7 @@
         <v>225</v>
       </c>
       <c r="T344" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="U344" t="s">
         <v>249</v>
@@ -78420,7 +78416,7 @@
         <v>230</v>
       </c>
       <c r="W344" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="X344" t="s">
         <v>214</v>
@@ -78435,7 +78431,7 @@
         <v>215</v>
       </c>
       <c r="AB344" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="AC344" t="s">
         <v>221</v>
